--- a/clean/mmycoides/building_data/automated-org-with-refs.xlsx
+++ b/clean/mmycoides/building_data/automated-org-with-refs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8396" uniqueCount="2277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8398" uniqueCount="2277">
   <si>
     <t>Gene Locus ID</t>
   </si>
@@ -28236,6 +28236,9 @@
       <c r="I807" t="s">
         <v>1772</v>
       </c>
+      <c r="L807" t="s">
+        <v>2019</v>
+      </c>
     </row>
     <row r="808" spans="1:21">
       <c r="A808" t="s">
@@ -34431,6 +34434,9 @@
       </c>
       <c r="I1115" t="s">
         <v>1940</v>
+      </c>
+      <c r="L1115" t="s">
+        <v>2019</v>
       </c>
     </row>
     <row r="1116" spans="1:19">
